--- a/tool/TableDef.xlsx
+++ b/tool/TableDef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\MJETSQL\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC53610F-743E-4550-936B-8E42E0144010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDDA25C-5BF8-45CC-8D0B-A8C80D717092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="16080" windowWidth="27750" windowHeight="16440" xr2:uid="{AB725A46-7363-4D6D-AC6B-C947346816AA}"/>
+    <workbookView xWindow="-195" yWindow="16080" windowWidth="26880" windowHeight="16440" activeTab="1" xr2:uid="{AB725A46-7363-4D6D-AC6B-C947346816AA}"/>
   </bookViews>
   <sheets>
     <sheet name="MAKER" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
-  <si>
-    <t>전표번호</t>
-  </si>
-  <si>
-    <t>전표유형</t>
-  </si>
-  <si>
-    <t>전표상태</t>
-  </si>
-  <si>
-    <t>계정코드</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="35">
   <si>
     <t>ColumnNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,21 +59,6 @@
     <t>VARCHAR(3)</t>
   </si>
   <si>
-    <t>VARCHAR(1)</t>
-  </si>
-  <si>
-    <t>VARCHAR(8)</t>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-  </si>
-  <si>
-    <t>VARCHAR(13)</t>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
     <t>VARCHAR(6)</t>
   </si>
   <si>
@@ -97,88 +70,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전표라인번호</t>
-  </si>
-  <si>
-    <t>계정코드명</t>
-  </si>
-  <si>
-    <t>차대지시자</t>
-  </si>
-  <si>
-    <t>금액</t>
-  </si>
-  <si>
-    <t>차변금액</t>
-  </si>
-  <si>
-    <t>대변금액</t>
-  </si>
-  <si>
-    <t>기준통화</t>
-  </si>
-  <si>
-    <t>회계일자</t>
-  </si>
-  <si>
-    <t>입력일자</t>
-  </si>
-  <si>
-    <t>입력시간</t>
-  </si>
-  <si>
-    <t>입력자</t>
-  </si>
-  <si>
-    <t>승인자</t>
-  </si>
-  <si>
-    <t>적요</t>
-  </si>
-  <si>
-    <t>손익계정Flog</t>
-  </si>
-  <si>
-    <t>수기전표Flog</t>
-  </si>
-  <si>
-    <t>역분개전표Flog</t>
-  </si>
-  <si>
-    <t>전표팀점</t>
-  </si>
-  <si>
-    <t>프로젝트코드</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(7)</t>
-  </si>
-  <si>
-    <t>VARCHAR(27)</t>
-  </si>
-  <si>
-    <t>VARCHAR(14)</t>
-  </si>
-  <si>
     <t>VARCHAR(9)</t>
-  </si>
-  <si>
-    <t>VARCHAR(103)</t>
-  </si>
-  <si>
-    <t>VARCHAR(24)</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANDT</t>
+  </si>
+  <si>
+    <t>BUKRS</t>
+  </si>
+  <si>
+    <t>GJAHR</t>
+  </si>
+  <si>
+    <t>BELNR</t>
+  </si>
+  <si>
+    <t>BUZEI</t>
+  </si>
+  <si>
+    <t>SHKZG</t>
+  </si>
+  <si>
+    <t>WRBTR</t>
+  </si>
+  <si>
+    <t>DMBTR</t>
+  </si>
+  <si>
+    <t>WAERS</t>
+  </si>
+  <si>
+    <t>HKONT</t>
+  </si>
+  <si>
+    <t>SGTXT</t>
+  </si>
+  <si>
+    <t>BLART</t>
+  </si>
+  <si>
+    <t>BLDAT</t>
+  </si>
+  <si>
+    <t>BUDAT</t>
+  </si>
+  <si>
+    <t>CPUDT</t>
+  </si>
+  <si>
+    <t>USNAM</t>
+  </si>
+  <si>
+    <t>XSTOV</t>
+  </si>
+  <si>
+    <t>BKTXT</t>
+  </si>
+  <si>
+    <t>VARCHAR(12)</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>VARCHAR(19)</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
   </si>
 </sst>
 </file>
@@ -555,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE118A-ACAA-4682-AA4A-D99FA59D43DE}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,13 +542,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="str">
         <f>B1</f>
@@ -592,57 +564,53 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="L2" t="str">
-        <f>PHONETIC(E2:K24)</f>
-        <v>`전표번호` VARCHAR(7),
-`전표라인번호` VARCHAR(2),
-`계정코드` VARCHAR(15),
-`계정코드명` VARCHAR(27),
-`차대지시자` VARCHAR(1),
-`금액` VARCHAR(14),
-`차변금액` VARCHAR(14),
-`대변금액` VARCHAR(13),
-`기준통화` VARCHAR(3),
-`회계일자` VARCHAR(8),
-`입력일자` VARCHAR(8),
-`입력시간` VARCHAR(6),
-`입력자` VARCHAR(9),
-`승인자` VARCHAR(1),
-`적요` VARCHAR(103),
-`손익계정Flog` VARCHAR(1),
-`수기전표Flog` VARCHAR(1),
-`역분개전표Flog` VARCHAR(1),
-`전표유형` VARCHAR(3),
-`전표상태` VARCHAR(2),
-`전표팀점` VARCHAR(24),
-`프로젝트코드` VARCHAR(1),
-`a` VARCHAR(3)</v>
+        <f>PHONETIC(E2:K19)</f>
+        <v xml:space="preserve">`MANDT` VARCHAR(3),
+`BUKRS` VARCHAR(6),
+`GJAHR` VARCHAR(6),
+`BELNR` VARCHAR(12),
+`BUZEI` VARCHAR(5),
+`SHKZG` VARCHAR(4),
+`WRBTR` VARCHAR(19),
+`DMBTR` VARCHAR(19),
+`WAERS` VARCHAR(4),
+`HKONT` VARCHAR(9),
+`SGTXT` VARCHAR(45),
+`BLART` VARCHAR(4),
+`BLDAT` VARCHAR(10),
+`BUDAT` VARCHAR(10),
+`CPUDT` VARCHAR(10),
+`USNAM` VARCHAR(5),
+`XSTOV` VARCHAR(4),
+`BKTXT` VARCHAR(25)
+</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -650,31 +618,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -682,31 +650,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -714,31 +682,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -746,31 +714,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -778,31 +746,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -810,31 +778,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -842,31 +810,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -874,31 +842,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -906,31 +874,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -938,31 +906,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -970,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1002,31 +970,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1034,31 +1002,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1066,31 +1034,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -1098,31 +1066,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -1130,31 +1098,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -1162,191 +1130,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F26" t="str">
-        <f>_xlfn.TEXTJOIN("|",FALSE,F2:F24)</f>
-        <v>전표번호|전표라인번호|계정코드|계정코드명|차대지시자|금액|차변금액|대변금액|기준통화|회계일자|입력일자|입력시간|입력자|승인자|적요|손익계정Flog|수기전표Flog|역분개전표Flog|전표유형|전표상태|전표팀점|프로젝트코드|a</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f>_xlfn.TEXTJOIN("|",FALSE,F2:F19)</f>
+        <v>MANDT|BUKRS|GJAHR|BELNR|BUZEI|SHKZG|WRBTR|DMBTR|WAERS|HKONT|SGTXT|BLART|BLDAT|BUDAT|CPUDT|USNAM|XSTOV|BKTXT</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1A581-AA3E-49C3-AB4F-07E646E54C89}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1370,29 +1181,25 @@
     <row r="1" spans="1:1" ht="387" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="str">
         <f>MAKER!L2</f>
-        <v>`전표번호` VARCHAR(7),
-`전표라인번호` VARCHAR(2),
-`계정코드` VARCHAR(15),
-`계정코드명` VARCHAR(27),
-`차대지시자` VARCHAR(1),
-`금액` VARCHAR(14),
-`차변금액` VARCHAR(14),
-`대변금액` VARCHAR(13),
-`기준통화` VARCHAR(3),
-`회계일자` VARCHAR(8),
-`입력일자` VARCHAR(8),
-`입력시간` VARCHAR(6),
-`입력자` VARCHAR(9),
-`승인자` VARCHAR(1),
-`적요` VARCHAR(103),
-`손익계정Flog` VARCHAR(1),
-`수기전표Flog` VARCHAR(1),
-`역분개전표Flog` VARCHAR(1),
-`전표유형` VARCHAR(3),
-`전표상태` VARCHAR(2),
-`전표팀점` VARCHAR(24),
-`프로젝트코드` VARCHAR(1),
-`a` VARCHAR(3)</v>
+        <v xml:space="preserve">`MANDT` VARCHAR(3),
+`BUKRS` VARCHAR(6),
+`GJAHR` VARCHAR(6),
+`BELNR` VARCHAR(12),
+`BUZEI` VARCHAR(5),
+`SHKZG` VARCHAR(4),
+`WRBTR` VARCHAR(19),
+`DMBTR` VARCHAR(19),
+`WAERS` VARCHAR(4),
+`HKONT` VARCHAR(9),
+`SGTXT` VARCHAR(45),
+`BLART` VARCHAR(4),
+`BLDAT` VARCHAR(10),
+`BUDAT` VARCHAR(10),
+`CPUDT` VARCHAR(10),
+`USNAM` VARCHAR(5),
+`XSTOV` VARCHAR(4),
+`BKTXT` VARCHAR(25)
+</v>
       </c>
     </row>
   </sheetData>
@@ -1404,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11662EC4-01B8-4B6E-9FFD-6E6E3DAE1C38}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A23"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,186 +1224,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tool/TableDef.xlsx
+++ b/tool/TableDef.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\MJETSQL\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDDA25C-5BF8-45CC-8D0B-A8C80D717092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156C6A9-EE87-4713-8CE5-766CD6E8C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="16080" windowWidth="26880" windowHeight="16440" activeTab="1" xr2:uid="{AB725A46-7363-4D6D-AC6B-C947346816AA}"/>
+    <workbookView xWindow="-195" yWindow="16080" windowWidth="26880" windowHeight="16440" xr2:uid="{AB725A46-7363-4D6D-AC6B-C947346816AA}"/>
   </bookViews>
   <sheets>
     <sheet name="MAKER" sheetId="1" r:id="rId1"/>
     <sheet name="FIN" sheetId="3" r:id="rId2"/>
     <sheet name="RAW" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="38">
   <si>
     <t>ColumnNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>MANDT|BUKRS|GJAHR|BELNR|BUZEI|SHKZG|WRBTR|DMBTR|WAERS|HKONT|SGTXT|BLART|BLDAT|BUDAT|CPUDT|USNAM|XSTOV|BKTXT</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +226,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE118A-ACAA-4682-AA4A-D99FA59D43DE}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,9 +559,10 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,8 +580,11 @@
         <f>"VARCHAR("&amp;C1&amp;")"</f>
         <v>VARCHAR(LEN)</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -612,8 +637,44 @@
 `BKTXT` VARCHAR(25)
 </v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="str">
+        <f>PHONETIC(N2:R19)</f>
+        <v>`MANDT`,
+`BUKRS`,
+`GJAHR`,
+`BELNR`,
+`BUZEI`,
+`SHKZG`,
+`WRBTR`,
+`DMBTR`,
+`WAERS`,
+`HKONT`,
+`SGTXT`,
+`BLART`,
+`BLDAT`,
+`BUDAT`,
+`CPUDT`,
+`USNAM`,
+`XSTOV`,
+`BKTXT`</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -644,8 +705,23 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -676,8 +752,23 @@
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -708,8 +799,23 @@
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -740,8 +846,23 @@
       <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -772,8 +893,23 @@
       <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -804,8 +940,23 @@
       <c r="K8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -836,8 +987,23 @@
       <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -868,8 +1034,23 @@
       <c r="K10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -900,8 +1081,23 @@
       <c r="K11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -932,8 +1128,23 @@
       <c r="K12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -964,8 +1175,23 @@
       <c r="K13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -996,8 +1222,23 @@
       <c r="K14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1028,8 +1269,23 @@
       <c r="K15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="N15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1060,8 +1316,23 @@
       <c r="K16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="N16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1092,8 +1363,23 @@
       <c r="K17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="N17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1124,8 +1410,23 @@
       <c r="K18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="N18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1153,11 +1454,23 @@
       <c r="K19" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F21" t="str">
         <f>_xlfn.TEXTJOIN("|",FALSE,F2:F19)</f>
         <v>MANDT|BUKRS|GJAHR|BELNR|BUZEI|SHKZG|WRBTR|DMBTR|WAERS|HKONT|SGTXT|BLART|BLDAT|BUDAT|CPUDT|USNAM|XSTOV|BKTXT</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1169,16 +1482,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1A581-AA3E-49C3-AB4F-07E646E54C89}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="137.25" customWidth="1"/>
+    <col min="1" max="1" width="62.625" customWidth="1"/>
+    <col min="2" max="2" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="387" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="387" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="str">
         <f>MAKER!L2</f>
         <v xml:space="preserve">`MANDT` VARCHAR(3),
@@ -1200,6 +1516,27 @@
 `XSTOV` VARCHAR(4),
 `BKTXT` VARCHAR(25)
 </v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>MAKER!T2</f>
+        <v>`MANDT`,
+`BUKRS`,
+`GJAHR`,
+`BELNR`,
+`BUZEI`,
+`SHKZG`,
+`WRBTR`,
+`DMBTR`,
+`WAERS`,
+`HKONT`,
+`SGTXT`,
+`BLART`,
+`BLDAT`,
+`BUDAT`,
+`CPUDT`,
+`USNAM`,
+`XSTOV`,
+`BKTXT`</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1711,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100B371920423D7B34086E0A94B2E36BB56" ma:contentTypeVersion="9" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a6d69db3474aa99da098d014b21d1692">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4f58efe-43e6-4ecc-ad4c-970b3671777b" xmlns:ns3="c0dcd07b-9496-4742-9c86-0e533c1e5890" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ad88b1d13679bde7f168cc6cadd0943" ns2:_="" ns3:_="">
     <xsd:import namespace="e4f58efe-43e6-4ecc-ad4c-970b3671777b"/>
@@ -1556,16 +1902,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003609A4-7D16-48A0-970A-007D435F2434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3DCEC6B-9151-451B-9E0F-A8B1D5063963}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1582,12 +1927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003609A4-7D16-48A0-970A-007D435F2434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>